--- a/myFavouriteWeb.xlsx
+++ b/myFavouriteWeb.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>网址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,26 @@
   </si>
   <si>
     <t>电子书分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://git.oschina.net/Armink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,10 +157,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -460,73 +480,94 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -536,9 +577,11 @@
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId9"/>
 </worksheet>
 </file>
 
